--- a/brand.xlsx
+++ b/brand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lenovo</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Realme</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gigabyte</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Infinix</t>
+          <t>POCO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Azerty</t>
+          <t>VIVO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dere</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -568,20 +568,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DIGMA</t>
+          <t>мир гаджетов</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -590,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>lenovo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -603,11 +607,137 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gigabyte</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Infinix</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Azerty</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dere</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DIGMA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Huawei</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>IPASON</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>10</v>
+      <c r="C24" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/brand.xlsx
+++ b/brand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Unique Combination</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>ArkTech</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Realme</t>
+          <t>A-Watch</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Original</t>
+          <t>AYD's</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TCL</t>
+          <t>KUPLACE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>Smartx</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POCO</t>
+          <t>Smart King</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VIVO</t>
+          <t>12_SOV</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>8watch</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>мир гаджетов</t>
+          <t>SmartGriga</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>Agavard</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lenovo</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Smart Watch</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gigabyte</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>SmartSale</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>SMARTEXPERT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Infinix</t>
+          <t>Huawei</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Azerty</t>
+          <t>L PRO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dere</t>
+          <t>SmartLux</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -698,20 +698,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DIGMA</t>
+          <t>Pushka Shop</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B&amp;Y devices</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -720,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>ELSERA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -733,10 +737,114 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IPASON</t>
+          <t>New Evolution</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Amazfit</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Smart Times</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WatchMe</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Privet</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MOZAIKA Store</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dreamx electronic</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>i-Smart</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KONFULON Toko</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>11</v>
       </c>
     </row>
